--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_127__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_127__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5429,7 +5429,7 @@
                   <c:v>57.94076919555664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.69383239746094</c:v>
+                  <c:v>45.69382858276367</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.58209991455078</c:v>
@@ -5447,13 +5447,13 @@
                   <c:v>97.14572143554688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.31668853759766</c:v>
+                  <c:v>50.31669235229492</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.3507080078125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.88743591308594</c:v>
+                  <c:v>89.887451171875</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>80.64151000976562</c:v>
@@ -5465,13 +5465,13 @@
                   <c:v>73.26187133789062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.83418273925781</c:v>
+                  <c:v>76.83419799804688</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>32.66536331176758</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.84794616699219</c:v>
+                  <c:v>97.84793090820312</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>81.20571899414062</c:v>
@@ -5483,7 +5483,7 @@
                   <c:v>63.08012771606445</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>57.83509063720703</c:v>
+                  <c:v>57.83509826660156</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>89.74774169921875</c:v>
@@ -5495,7 +5495,7 @@
                   <c:v>96.1597900390625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>91.194091796875</c:v>
+                  <c:v>91.19410705566406</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.28750610351562</c:v>
@@ -5525,16 +5525,16 @@
                   <c:v>40.40084075927734</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.43455505371094</c:v>
+                  <c:v>89.4345703125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.10208129882812</c:v>
+                  <c:v>97.10206604003906</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.88255310058594</c:v>
+                  <c:v>59.88254547119141</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94.56980895996094</c:v>
+                  <c:v>94.56982421875</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>38.02470397949219</c:v>
@@ -5543,7 +5543,7 @@
                   <c:v>87.67747497558594</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>85.7044677734375</c:v>
+                  <c:v>85.70448303222656</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>78.76484680175781</c:v>
@@ -5564,7 +5564,7 @@
                   <c:v>97.16470336914062</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>83.57656860351562</c:v>
+                  <c:v>83.57658386230469</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>85.66119384765625</c:v>
@@ -5588,10 +5588,10 @@
                   <c:v>77.03948974609375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.72675323486328</c:v>
+                  <c:v>51.72674942016602</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97.23129272460938</c:v>
+                  <c:v>97.23130798339844</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>47.36193466186523</c:v>
@@ -5609,13 +5609,13 @@
                   <c:v>97.56617736816406</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>86.68228149414062</c:v>
+                  <c:v>86.68226623535156</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>96.28868103027344</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.33546447753906</c:v>
+                  <c:v>89.33544921875</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>97.17263793945312</c:v>
@@ -5624,7 +5624,7 @@
                   <c:v>61.38301849365234</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.41287231445312</c:v>
+                  <c:v>82.41288757324219</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>68.49917602539062</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>97.20712280273438</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.91808128356934</c:v>
+                  <c:v>28.91808319091797</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>65.34706115722656</c:v>
@@ -5648,16 +5648,16 @@
                   <c:v>85.42240905761719</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>57.5159912109375</c:v>
+                  <c:v>57.5160026550293</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>82.60464477539062</c:v>
+                  <c:v>82.60462951660156</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>64.26650238037109</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.02298736572266</c:v>
+                  <c:v>53.02298355102539</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.37298583984375</c:v>
@@ -5675,16 +5675,16 @@
                   <c:v>92.06025695800781</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>96.4522705078125</c:v>
+                  <c:v>96.45225524902344</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>81.55241394042969</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>81.25810241699219</c:v>
+                  <c:v>81.25811767578125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.02171325683594</c:v>
+                  <c:v>64.02170562744141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>45.69383239746094</v>
+        <v>45.69382858276367</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>50.31668853759766</v>
+        <v>50.31669235229492</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>89.88743591308594</v>
+        <v>89.887451171875</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>76.83418273925781</v>
+        <v>76.83419799804688</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>97.7124</v>
       </c>
       <c r="F20">
-        <v>97.84794616699219</v>
+        <v>97.84793090820312</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>57.83509063720703</v>
+        <v>57.83509826660156</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>91.194091796875</v>
+        <v>91.19410705566406</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.43455505371094</v>
+        <v>89.4345703125</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>97.10208129882812</v>
+        <v>97.10206604003906</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>59.88255310058594</v>
+        <v>59.88254547119141</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>93.9979</v>
       </c>
       <c r="F41">
-        <v>94.56980895996094</v>
+        <v>94.56982421875</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>84.637</v>
       </c>
       <c r="F44">
-        <v>85.7044677734375</v>
+        <v>85.70448303222656</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>83.31910000000001</v>
       </c>
       <c r="F51">
-        <v>83.57656860351562</v>
+        <v>83.57658386230469</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.72675323486328</v>
+        <v>51.72674942016602</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>97.3549</v>
       </c>
       <c r="F60">
-        <v>97.23129272460938</v>
+        <v>97.23130798339844</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>86.68228149414062</v>
+        <v>86.68226623535156</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>89.33546447753906</v>
+        <v>89.33544921875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.41287231445312</v>
+        <v>82.41288757324219</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>28.91808128356934</v>
+        <v>28.91808319091797</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>57.5159912109375</v>
+        <v>57.5160026550293</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>81.8498</v>
       </c>
       <c r="F80">
-        <v>82.60464477539062</v>
+        <v>82.60462951660156</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.02298736572266</v>
+        <v>53.02298355102539</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>95.86490000000001</v>
       </c>
       <c r="F88">
-        <v>96.4522705078125</v>
+        <v>96.45225524902344</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>81.3472</v>
       </c>
       <c r="F90">
-        <v>81.25810241699219</v>
+        <v>81.25811767578125</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>64.02171325683594</v>
+        <v>64.02170562744141</v>
       </c>
     </row>
     <row r="92" spans="1:6">
